--- a/artfynd/A 58262-2025 artfynd.xlsx
+++ b/artfynd/A 58262-2025 artfynd.xlsx
@@ -1691,7 +1691,7 @@
         <v>130828624</v>
       </c>
       <c r="B11" t="n">
-        <v>92017</v>
+        <v>92021</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 58262-2025 artfynd.xlsx
+++ b/artfynd/A 58262-2025 artfynd.xlsx
@@ -1691,7 +1691,7 @@
         <v>130828624</v>
       </c>
       <c r="B11" t="n">
-        <v>92021</v>
+        <v>92022</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
